--- a/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-143057.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Metro Knitting & Dyeing Mills Ltd/Running/PG-143057.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Date:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>105/D</t>
+  </si>
+  <si>
+    <t>34/18</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1047,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14">
         <f>G31-N31</f>
-        <v>1283.68</v>
+        <v>397.68000000000006</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7"/>
@@ -1071,11 +1074,21 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="14"/>
+      <c r="J8" s="19">
+        <v>44457</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1723</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="8">
+        <v>61</v>
+      </c>
+      <c r="N8" s="14">
+        <v>553</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="8"/>
       <c r="Q8"/>
@@ -1090,11 +1103,21 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="14"/>
+      <c r="J9" s="19">
+        <v>44457</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1732</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="8">
+        <v>61</v>
+      </c>
+      <c r="N9" s="14">
+        <v>333</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="8"/>
       <c r="Q9"/>
@@ -1520,7 +1543,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <f>SUM(N7:N30)</f>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
